--- a/Sales Report/Updated Sales Rport.xlsx
+++ b/Sales Report/Updated Sales Rport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sales by billing location" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="48" r:id="rId11"/>
     <pivotCache cacheId="9" r:id="rId12"/>
-    <pivotCache cacheId="12" r:id="rId13"/>
-    <pivotCache cacheId="15" r:id="rId14"/>
+    <pivotCache cacheId="41" r:id="rId13"/>
+    <pivotCache cacheId="43" r:id="rId14"/>
     <pivotCache cacheId="18" r:id="rId15"/>
     <pivotCache cacheId="21" r:id="rId16"/>
-    <pivotCache cacheId="24" r:id="rId17"/>
-    <pivotCache cacheId="31" r:id="rId18"/>
+    <pivotCache cacheId="45" r:id="rId17"/>
+    <pivotCache cacheId="53" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="2212">
   <si>
     <t>gross_sales</t>
   </si>
@@ -6487,9 +6487,6 @@
     <t>Profit Margin % = (Net Sales / Gross Sales) × 100</t>
   </si>
   <si>
-    <t>Sum of net_sales</t>
-  </si>
-  <si>
     <t>Channel Name</t>
   </si>
   <si>
@@ -6523,9 +6520,6 @@
     <t>Top 5 customer  Net Sales vs Gross Sales Comparison</t>
   </si>
   <si>
-    <t>Sum of gross_sales</t>
-  </si>
-  <si>
     <t>Discount Type Distribution</t>
   </si>
   <si>
@@ -6541,21 +6535,6 @@
     <t>Y-axis: Total Net Sales</t>
   </si>
   <si>
-    <t>Average Order Value by Discount Method</t>
-  </si>
-  <si>
-    <t>AOV = Grand Total Sales / Orders</t>
-  </si>
-  <si>
-    <t>Sum of orders</t>
-  </si>
-  <si>
-    <t>Sum of total_discount_amount</t>
-  </si>
-  <si>
-    <t>Sum of total_net_sales</t>
-  </si>
-  <si>
     <t>Discount Name</t>
   </si>
   <si>
@@ -6574,9 +6553,6 @@
     <t>Top 5 vendor</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
   </si>
   <si>
@@ -6592,9 +6568,6 @@
     <t>Top 5 Products: Net Sales vs Gross Sales Comparison</t>
   </si>
   <si>
-    <t>Product Profitability Metrics</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -6692,6 +6665,15 @@
   </si>
   <si>
     <t>Traffic Platfrom</t>
+  </si>
+  <si>
+    <t>No of Orders</t>
+  </si>
+  <si>
+    <t>Total Discount Amount</t>
+  </si>
+  <si>
+    <t>Sum of Field1</t>
   </si>
 </sst>
 </file>
@@ -6756,7 +6738,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45589.63179363426" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Author" refreshedDate="45589.63179363426" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource name="Table10"/>
   </cacheSource>
@@ -6808,9 +6790,9 @@
     <cacheField name="total_sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="7076.12"/>
     </cacheField>
-    <cacheField name="Average Order Value" numFmtId="0" formula="total_sales/orders" databaseField="0"/>
-    <cacheField name="Average Net Order Valu" numFmtId="0" formula="net_sales/orders" databaseField="0"/>
-    <cacheField name="Return Rate" numFmtId="0" formula=" (returns/gross_sales) * 100" databaseField="0"/>
+    <cacheField name="Average Order Value" numFmtId="0" formula="IFERROR((total_sales/orders),0)" databaseField="0"/>
+    <cacheField name="Average Net Order Valu" numFmtId="0" formula="IFERROR((net_sales/orders),0)" databaseField="0"/>
+    <cacheField name="Return Rate" numFmtId="0" formula="IFERROR(((returns/gross_sales) * 100),0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -6906,8 +6888,8 @@
     <cacheField name="total_sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="17850"/>
     </cacheField>
-    <cacheField name="Return Rate" numFmtId="0" formula=" (returns/gross_sales)*100" databaseField="0"/>
-    <cacheField name="Profit Margin" numFmtId="0" formula="(net_sales/gross_sales)*100" databaseField="0"/>
+    <cacheField name="Return Rate" numFmtId="0" formula="IFERROR(( (returns/gross_sales)*100),0)" databaseField="0"/>
+    <cacheField name="Profit Margin" numFmtId="0" formula="IFERROR(((net_sales/gross_sales)*100),0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -7983,7 +7965,7 @@
     <cacheField name="total_sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="516.76"/>
     </cacheField>
-    <cacheField name="AOV" numFmtId="0" formula="total_sales/ SUM(orders)" databaseField="0"/>
+    <cacheField name="AOV" numFmtId="0" formula="IFERROR((total_sales/ SUM(orders)),0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8141,7 +8123,7 @@
     <cacheField name="total_sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="11201.59"/>
     </cacheField>
-    <cacheField name="Profit Margin" numFmtId="0" formula="(net_sales/gross_sales) * 100" databaseField="0"/>
+    <cacheField name="Profit Margin" numFmtId="0" formula="IFERROR(((net_sales/gross_sales) * 100),0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8152,11 +8134,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45589.662895370369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Author" refreshedDate="45589.662895370369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource name="Table9"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="6">
     <cacheField name="referrer_source" numFmtId="0">
       <sharedItems count="5">
         <s v="Direct"/>
@@ -8186,7 +8168,8 @@
     <cacheField name="total_sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="16217.72"/>
     </cacheField>
-    <cacheField name="Average Order Value" numFmtId="0" formula="total_sales /orders" databaseField="0"/>
+    <cacheField name="Average Order Value" numFmtId="0" formula="IFERROR((total_sales/orders),0)" databaseField="0"/>
+    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -17208,7 +17191,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Vendor Name">
   <location ref="T3:U6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -17370,7 +17353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Name">
   <location ref="W3:X9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -17433,7 +17416,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Name">
   <location ref="R3:T9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -17505,7 +17488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="45" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Name">
   <location ref="N3:O9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -17577,8 +17560,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y4:Z18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year-month">
+  <location ref="W4:X18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
       <items count="14">
@@ -17675,8 +17658,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U4:W18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year-month">
+  <location ref="S4:U18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
       <items count="14">
@@ -17782,8 +17765,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year-month">
-  <location ref="R4:S18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year-month">
+  <location ref="P4:Q18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
       <items count="14">
@@ -17880,9 +17863,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" Traffic Platfrom">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" Traffic Platfrom">
   <location ref="R4:S15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="6">
     <pivotField showAll="0">
       <items count="6">
         <item x="0"/>
@@ -17910,6 +17893,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -18016,9 +18000,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Traffic Platfrom">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Traffic Platfrom">
   <location ref="N4:O15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
@@ -18038,6 +18022,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -18093,9 +18078,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" Traffic Source">
-  <location ref="I4:K10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" Traffic Source">
+  <location ref="I4:L10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -18110,6 +18095,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -18137,17 +18123,21 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="Orders " fld="2" baseField="0" baseItem="0"/>
     <dataField name="Total Sales" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Field1" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -18159,7 +18149,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Channel Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Channel Name">
   <location ref="T3:U10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -18226,7 +18216,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Channel Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Channel Name">
   <location ref="P3:Q10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -18293,7 +18283,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Channel Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Channel Name">
   <location ref="M2:N9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -18360,7 +18350,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O4:P5" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
@@ -18399,7 +18389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer Name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer Name">
   <location ref="K4:M10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -19490,8 +19480,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of net_sales" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of gross_sales" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Net Sales" fld="4" baseField="0" baseItem="127"/>
+    <dataField name="Gross Sales" fld="3" baseField="0" baseItem="127"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
@@ -19513,7 +19503,7 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="Discount Name">
-  <location ref="P3:S13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="O3:R13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -19591,9 +19581,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Sum of orders" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total_discount_amount" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total_net_sales" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="No of Orders" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Total Discount Amount" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Net Sales" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -19606,7 +19596,7 @@
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Discount Name">
-  <location ref="U4:W14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="T4:V14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -19681,8 +19671,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of total_discount_amount" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of total_net_sales" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Total Discount Amount" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Net Sales" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -20099,8 +20089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20146,7 +20136,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -20178,7 +20168,7 @@
         <v>25106.73</v>
       </c>
       <c r="K2" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>2138</v>
@@ -20313,8 +20303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20401,7 +20391,7 @@
         <v>17850</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="N2" t="s">
         <v>2142</v>
@@ -20448,16 +20438,16 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Q3" t="s">
         <v>2150</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="U3" t="s">
         <v>2151</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>2150</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -20715,8 +20705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1046"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20729,8 +20719,8 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
@@ -20756,7 +20746,7 @@
         <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -20779,10 +20769,10 @@
         <v>516.76</v>
       </c>
       <c r="K2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="O2" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -20819,19 +20809,19 @@
         <v>239.8</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="P4" t="s">
         <v>2157</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2149</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2161</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2159</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -41687,10 +41677,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41707,17 +41697,16 @@
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="25.140625" customWidth="1"/>
-    <col min="15" max="15" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2081</v>
       </c>
@@ -41754,14 +41743,14 @@
       <c r="L1" t="s">
         <v>2091</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="T1" t="s">
         <v>2162</v>
       </c>
-      <c r="U1" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2092</v>
       </c>
@@ -41798,14 +41787,14 @@
       <c r="L2">
         <v>10300.58</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="T2" t="s">
         <v>2163</v>
       </c>
-      <c r="U2" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2096</v>
       </c>
@@ -41842,23 +41831,23 @@
       <c r="L3">
         <v>1652.89</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>2172</v>
+      <c r="O3" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2209</v>
       </c>
       <c r="Q3" t="s">
-        <v>2169</v>
+        <v>2210</v>
       </c>
       <c r="R3" t="s">
-        <v>2170</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2171</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2097</v>
       </c>
@@ -41895,29 +41884,29 @@
       <c r="L4">
         <v>161.69999999999999</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>2104</v>
       </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>12.95</v>
       </c>
       <c r="R4" s="3">
-        <v>12.95</v>
-      </c>
-      <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>2172</v>
+      <c r="T4" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2210</v>
       </c>
       <c r="V4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="W4" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2098</v>
       </c>
@@ -41954,35 +41943,29 @@
       <c r="L5">
         <v>53.13</v>
       </c>
-      <c r="N5" t="s">
-        <v>2081</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2162</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>2098</v>
       </c>
+      <c r="P5" s="3">
+        <v>4</v>
+      </c>
       <c r="Q5" s="3">
-        <v>4</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="R5" s="3">
-        <v>74.650000000000006</v>
-      </c>
-      <c r="S5" s="3">
         <v>53.13</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>2104</v>
       </c>
+      <c r="U5" s="3">
+        <v>12.95</v>
+      </c>
       <c r="V5" s="3">
-        <v>12.95</v>
-      </c>
-      <c r="W5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2099</v>
       </c>
@@ -42019,35 +42002,29 @@
       <c r="L6">
         <v>38.31</v>
       </c>
-      <c r="N6" t="s">
-        <v>2082</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2163</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>2102</v>
       </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
       <c r="Q6" s="3">
-        <v>1</v>
+        <v>239.4</v>
       </c>
       <c r="R6" s="3">
-        <v>239.4</v>
-      </c>
-      <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>2098</v>
       </c>
+      <c r="U6" s="3">
+        <v>74.650000000000006</v>
+      </c>
       <c r="V6" s="3">
-        <v>74.650000000000006</v>
-      </c>
-      <c r="W6" s="3">
         <v>53.13</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2100</v>
       </c>
@@ -42084,33 +42061,29 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
-        <v>2083</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>2105</v>
       </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
       <c r="Q7" s="3">
-        <v>5</v>
+        <v>239.6</v>
       </c>
       <c r="R7" s="3">
-        <v>239.6</v>
-      </c>
-      <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>2102</v>
       </c>
+      <c r="U7" s="3">
+        <v>239.4</v>
+      </c>
       <c r="V7" s="3">
-        <v>239.4</v>
-      </c>
-      <c r="W7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2100</v>
       </c>
@@ -42147,35 +42120,29 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>2084</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2164</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>2096</v>
       </c>
+      <c r="P8" s="3">
+        <v>67</v>
+      </c>
       <c r="Q8" s="3">
-        <v>67</v>
+        <v>289.67</v>
       </c>
       <c r="R8" s="3">
-        <v>289.67</v>
-      </c>
-      <c r="S8" s="3">
         <v>1642.91</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>2105</v>
       </c>
+      <c r="U8" s="3">
+        <v>239.6</v>
+      </c>
       <c r="V8" s="3">
-        <v>239.6</v>
-      </c>
-      <c r="W8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2102</v>
       </c>
@@ -42212,35 +42179,29 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>2165</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>2092</v>
       </c>
+      <c r="P9" s="3">
+        <v>733</v>
+      </c>
       <c r="Q9" s="3">
-        <v>733</v>
+        <v>10250.44</v>
       </c>
       <c r="R9" s="3">
-        <v>10250.44</v>
-      </c>
-      <c r="S9" s="3">
         <v>10276.469999999999</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>2096</v>
       </c>
+      <c r="U9" s="3">
+        <v>289.67</v>
+      </c>
       <c r="V9" s="3">
-        <v>289.67</v>
-      </c>
-      <c r="W9" s="3">
         <v>1642.91</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2104</v>
       </c>
@@ -42277,35 +42238,29 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
-        <v>2085</v>
-      </c>
-      <c r="O10" t="s">
-        <v>2166</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>2099</v>
       </c>
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
       <c r="Q10" s="3">
-        <v>5</v>
+        <v>57.45</v>
       </c>
       <c r="R10" s="3">
-        <v>57.45</v>
-      </c>
-      <c r="S10" s="3">
         <v>38.31</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>2092</v>
       </c>
+      <c r="U10" s="3">
+        <v>10250.44</v>
+      </c>
       <c r="V10" s="3">
-        <v>10250.44</v>
-      </c>
-      <c r="W10" s="3">
         <v>10276.469999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2105</v>
       </c>
@@ -42342,111 +42297,83 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>2086</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>2097</v>
       </c>
+      <c r="P11" s="3">
+        <v>10</v>
+      </c>
       <c r="Q11" s="3">
-        <v>10</v>
+        <v>53.85</v>
       </c>
       <c r="R11" s="3">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="U11" s="3">
+        <v>57.45</v>
+      </c>
+      <c r="V11" s="3">
+        <v>38.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1011.2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="U12" s="3">
         <v>53.85</v>
       </c>
-      <c r="S11" s="3">
+      <c r="V12" s="3">
         <v>161.69999999999999</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>2099</v>
-      </c>
-      <c r="V11" s="3">
-        <v>57.45</v>
-      </c>
-      <c r="W11" s="3">
-        <v>38.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N12" t="s">
-        <v>2087</v>
-      </c>
-      <c r="O12" t="s">
-        <v>2167</v>
-      </c>
-      <c r="P12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="P13" s="3">
+        <v>902</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>12229.210000000003</v>
+      </c>
+      <c r="R13" s="3">
+        <v>12172.52</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>76</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="U13" s="3">
         <v>1011.2</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V13" s="3">
         <v>0</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>2097</v>
-      </c>
-      <c r="V12" s="3">
-        <v>53.85</v>
-      </c>
-      <c r="W12" s="3">
-        <v>161.69999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N13" t="s">
-        <v>2088</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2168</v>
-      </c>
-      <c r="P13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="Q13" s="3">
-        <v>902</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="U14" s="3">
         <v>12229.210000000003</v>
       </c>
-      <c r="S13" s="3">
+      <c r="V14" s="3">
         <v>12172.52</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>2100</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1011.2</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N14" t="s">
-        <v>2089</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>2136</v>
-      </c>
-      <c r="V14" s="3">
-        <v>12229.210000000003</v>
-      </c>
-      <c r="W14" s="3">
-        <v>12172.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N15" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N16" t="s">
-        <v>2091</v>
       </c>
     </row>
   </sheetData>
@@ -42461,8 +42388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42509,10 +42436,10 @@
         <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="T1" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -42541,13 +42468,13 @@
         <v>15518.28</v>
       </c>
       <c r="M2" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="P2" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="T2" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -42576,22 +42503,22 @@
         <v>9819.48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="N3" t="s">
         <v>2142</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="Q3" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="U3" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -42667,8 +42594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42724,7 +42651,7 @@
         <v>8</v>
       </c>
       <c r="W1" t="s">
-        <v>2187</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -42759,10 +42686,10 @@
         <v>11201.59</v>
       </c>
       <c r="N2" t="s">
-        <v>2182</v>
+        <v>2174</v>
       </c>
       <c r="R2" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="W2" t="s">
         <v>2148</v>
@@ -42799,29 +42726,26 @@
       <c r="J3">
         <v>9758.18</v>
       </c>
-      <c r="L3" t="s">
-        <v>2182</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>2185</v>
+        <v>2176</v>
       </c>
       <c r="O3" t="s">
         <v>2142</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>2185</v>
+        <v>2176</v>
       </c>
       <c r="S3" t="s">
         <v>2142</v>
       </c>
       <c r="T3" t="s">
-        <v>2186</v>
+        <v>2177</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="X3" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -42908,9 +42832,6 @@
       <c r="J5">
         <v>61.3</v>
       </c>
-      <c r="L5" t="s">
-        <v>2183</v>
-      </c>
       <c r="N5" s="2" t="s">
         <v>2112</v>
       </c>
@@ -43017,9 +42938,6 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>2184</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>2110</v>
       </c>
@@ -43072,9 +42990,6 @@
       </c>
       <c r="J8">
         <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2148</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>2109</v>
@@ -43132,10 +43047,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43148,23 +43063,22 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="30" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="25" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2188</v>
+        <v>2179</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -43196,19 +43110,19 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
-        <v>2202</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2203</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -43240,13 +43154,13 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2190</v>
+        <v>2181</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -43278,13 +43192,13 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2191</v>
+        <v>2182</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -43316,31 +43230,31 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>2206</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="P4" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="Q4" t="s">
         <v>2142</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2207</v>
-      </c>
-      <c r="W4" t="s">
-        <v>2208</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2192</v>
+        <v>2183</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -43372,31 +43286,31 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>2189</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="P5" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>2189</v>
-      </c>
-      <c r="V5" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>2189</v>
-      </c>
-      <c r="Z5" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S5" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -43428,31 +43342,31 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>2190</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="P6" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>2190</v>
-      </c>
-      <c r="V6" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>2190</v>
-      </c>
-      <c r="Z6" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S6" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2194</v>
+        <v>2185</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -43484,31 +43398,31 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>2191</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="P7" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>2191</v>
-      </c>
-      <c r="V7" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W7" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>2191</v>
-      </c>
-      <c r="Z7" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2195</v>
+        <v>2186</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -43540,31 +43454,31 @@
       <c r="K8">
         <v>77.849999999999994</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>2192</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="P8" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>2192</v>
-      </c>
-      <c r="V8" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W8" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>2192</v>
-      </c>
-      <c r="Z8" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S8" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2196</v>
+        <v>2187</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -43596,31 +43510,31 @@
       <c r="K9">
         <v>381.12</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>2193</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="P9" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>2193</v>
-      </c>
-      <c r="V9" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W9" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>2193</v>
-      </c>
-      <c r="Z9" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S9" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2197</v>
+        <v>2188</v>
       </c>
       <c r="B10">
         <v>107</v>
@@ -43652,31 +43566,31 @@
       <c r="K10">
         <v>2086.31</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="P10" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="V10" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W10" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="Z10" s="4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S10" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2198</v>
+        <v>2189</v>
       </c>
       <c r="B11">
         <v>248</v>
@@ -43708,31 +43622,31 @@
       <c r="K11">
         <v>4470.57</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>2195</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="P11" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="Q11" s="3">
         <v>77.849999999999994</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>2195</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="S11" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="T11" s="4">
         <v>11.12142857142857</v>
       </c>
-      <c r="W11" s="4">
+      <c r="U11" s="4">
         <v>11.12142857142857</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>2195</v>
-      </c>
-      <c r="Z11" s="4">
+      <c r="W11" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="X11" s="4">
         <v>-11.357813834329631</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2199</v>
+        <v>2190</v>
       </c>
       <c r="B12">
         <v>391</v>
@@ -43764,31 +43678,31 @@
       <c r="K12">
         <v>5023.3599999999997</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>2196</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="P12" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="Q12" s="3">
         <v>376.05</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>2196</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="S12" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="T12" s="4">
         <v>14.115555555555556</v>
       </c>
-      <c r="W12" s="4">
+      <c r="U12" s="4">
         <v>13.927777777777779</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>2196</v>
-      </c>
-      <c r="Z12" s="4">
+      <c r="W12" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="X12" s="4">
         <v>-26.414084339499201</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2200</v>
+        <v>2191</v>
       </c>
       <c r="B13">
         <v>408</v>
@@ -43820,31 +43734,31 @@
       <c r="K13">
         <v>7076.12</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="P13" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="Q13" s="3">
         <v>2082.86</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="S13" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="T13" s="4">
         <v>19.49822429906542</v>
       </c>
-      <c r="W13" s="4">
+      <c r="U13" s="4">
         <v>19.465981308411216</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="Z13" s="4">
+      <c r="W13" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="X13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2201</v>
+        <v>2192</v>
       </c>
       <c r="B14">
         <v>292</v>
@@ -43876,117 +43790,117 @@
       <c r="K14">
         <v>6387.9</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>2198</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="P14" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4462.96</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>2198</v>
-      </c>
-      <c r="V14" s="4">
+      <c r="S14" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="T14" s="4">
         <v>18.026491935483868</v>
       </c>
-      <c r="W14" s="4">
+      <c r="U14" s="4">
         <v>17.995806451612903</v>
       </c>
-      <c r="Y14" s="2" t="s">
-        <v>2198</v>
-      </c>
-      <c r="Z14" s="4">
+      <c r="W14" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="X14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R15" s="2" t="s">
-        <v>2199</v>
-      </c>
-      <c r="S15" s="3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P15" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5011.05</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>2199</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="S15" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="T15" s="4">
         <v>12.847468030690536</v>
       </c>
-      <c r="W15" s="4">
+      <c r="U15" s="4">
         <v>12.815984654731459</v>
       </c>
-      <c r="Y15" s="2" t="s">
-        <v>2199</v>
-      </c>
-      <c r="Z15" s="4">
+      <c r="W15" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="X15" s="4">
         <v>-0.79628421974252939</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R16" s="2" t="s">
-        <v>2200</v>
-      </c>
-      <c r="S16" s="3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Q16" s="3">
         <v>7047.75</v>
       </c>
-      <c r="U16" s="2" t="s">
-        <v>2200</v>
-      </c>
-      <c r="V16" s="4">
+      <c r="S16" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="T16" s="4">
         <v>17.34343137254902</v>
       </c>
-      <c r="W16" s="4">
+      <c r="U16" s="4">
         <v>17.273897058823529</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>2200</v>
-      </c>
-      <c r="Z16" s="4">
+      <c r="W16" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="X16" s="4">
         <v>-0.58898002885928424</v>
       </c>
     </row>
-    <row r="17" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R17" s="2" t="s">
-        <v>2201</v>
-      </c>
-      <c r="S17" s="3">
+    <row r="17" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="Q17" s="3">
         <v>6362.85</v>
       </c>
-      <c r="U17" s="2" t="s">
-        <v>2201</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="S17" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="T17" s="4">
         <v>21.876369863013696</v>
       </c>
-      <c r="W17" s="4">
+      <c r="U17" s="4">
         <v>21.790582191780825</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>2201</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="W17" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="X17" s="4">
         <v>-3.6735309851013342</v>
       </c>
     </row>
-    <row r="18" spans="18:26" x14ac:dyDescent="0.25">
-      <c r="R18" s="2" t="s">
+    <row r="18" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="S18" s="3">
+      <c r="Q18" s="3">
         <v>25421.370000000003</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="V18" s="4">
+      <c r="T18" s="4">
         <v>17.23191216216216</v>
       </c>
-      <c r="W18" s="4">
+      <c r="U18" s="4">
         <v>17.176601351351351</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="X18" s="4">
         <v>-1.6828456626546058</v>
       </c>
     </row>
@@ -44003,7 +43917,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44014,9 +43928,10 @@
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
     <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
     <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -44046,7 +43961,7 @@
         <v>16217.72</v>
       </c>
       <c r="N2" t="s">
-        <v>2215</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -44063,13 +43978,13 @@
         <v>6114.42</v>
       </c>
       <c r="I3" t="s">
-        <v>2212</v>
+        <v>2203</v>
       </c>
       <c r="N3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="R3" t="s">
-        <v>2214</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -44086,25 +44001,28 @@
         <v>2388.5700000000002</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2213</v>
+        <v>2204</v>
       </c>
       <c r="J4" t="s">
-        <v>2209</v>
+        <v>2200</v>
       </c>
       <c r="K4" t="s">
-        <v>2210</v>
+        <v>2201</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2211</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>2217</v>
+        <v>2208</v>
       </c>
       <c r="O4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>2216</v>
-      </c>
       <c r="S4" t="s">
-        <v>2210</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -44129,6 +44047,9 @@
       <c r="K5" s="3">
         <v>16217.72</v>
       </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>2128</v>
       </c>
@@ -44164,6 +44085,9 @@
       <c r="K6" s="3">
         <v>7.98</v>
       </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>2132</v>
       </c>
@@ -44199,6 +44123,9 @@
       <c r="K7" s="3">
         <v>517.03</v>
       </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>2122</v>
       </c>
@@ -44234,6 +44161,9 @@
       <c r="K8" s="3">
         <v>8502.99</v>
       </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>2125</v>
       </c>
@@ -44269,6 +44199,9 @@
       <c r="K9" s="3">
         <v>127.79</v>
       </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>2123</v>
       </c>
@@ -44304,6 +44237,9 @@
       <c r="K10" s="3">
         <v>25373.510000000002</v>
       </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
       <c r="N10" s="2" t="s">
         <v>2131</v>
       </c>
@@ -44373,13 +44309,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N14" s="2" t="s">
-        <v>2211</v>
+        <v>2202</v>
       </c>
       <c r="O14" s="4">
         <v>17.494843581445522</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>2211</v>
+        <v>2202</v>
       </c>
       <c r="S14" s="3">
         <v>16217.72</v>
@@ -44412,8 +44348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
